--- a/stock_historical_data/60m/SOLEX-SM.NS.xlsx
+++ b/stock_historical_data/60m/SOLEX-SM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1674"/>
+  <dimension ref="A1:Q1693"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10803,7 +10803,7 @@
         <v>0</v>
       </c>
       <c r="Q195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
@@ -12287,7 +12287,7 @@
         <v>0</v>
       </c>
       <c r="Q223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
@@ -14937,7 +14937,7 @@
         <v>2</v>
       </c>
       <c r="Q273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274">
@@ -16580,7 +16580,7 @@
         <v>2</v>
       </c>
       <c r="Q304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305">
@@ -17428,7 +17428,7 @@
         <v>2</v>
       </c>
       <c r="Q320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321">
@@ -19866,7 +19866,7 @@
         <v>0</v>
       </c>
       <c r="Q366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367">
@@ -23205,7 +23205,7 @@
         <v>0</v>
       </c>
       <c r="Q429" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430">
@@ -29777,7 +29777,7 @@
         <v>2</v>
       </c>
       <c r="Q553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="554">
@@ -30943,7 +30943,7 @@
         <v>1</v>
       </c>
       <c r="Q575" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="576">
@@ -32427,7 +32427,7 @@
         <v>1</v>
       </c>
       <c r="Q603" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="604">
@@ -32798,7 +32798,7 @@
         <v>2</v>
       </c>
       <c r="Q610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="611">
@@ -34070,7 +34070,7 @@
         <v>1</v>
       </c>
       <c r="Q634" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="635">
@@ -35077,7 +35077,7 @@
         <v>0</v>
       </c>
       <c r="Q653" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654">
@@ -36508,7 +36508,7 @@
         <v>0</v>
       </c>
       <c r="Q680" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681">
@@ -37409,7 +37409,7 @@
         <v>1</v>
       </c>
       <c r="Q697" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="698">
@@ -38734,7 +38734,7 @@
         <v>1</v>
       </c>
       <c r="Q722" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="723">
@@ -40907,7 +40907,7 @@
         <v>1</v>
       </c>
       <c r="Q763" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="764">
@@ -42338,7 +42338,7 @@
         <v>2</v>
       </c>
       <c r="Q790" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="791">
@@ -42391,7 +42391,7 @@
         <v>2</v>
       </c>
       <c r="Q791" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="792">
@@ -44458,7 +44458,7 @@
         <v>2</v>
       </c>
       <c r="Q830" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="831">
@@ -47055,7 +47055,7 @@
         <v>2</v>
       </c>
       <c r="Q879" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="880">
@@ -48168,7 +48168,7 @@
         <v>2</v>
       </c>
       <c r="Q900" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="901">
@@ -49069,7 +49069,7 @@
         <v>2</v>
       </c>
       <c r="Q917" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="918">
@@ -49652,7 +49652,7 @@
         <v>2</v>
       </c>
       <c r="Q928" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="929">
@@ -50606,7 +50606,7 @@
         <v>1</v>
       </c>
       <c r="Q946" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="947">
@@ -50871,7 +50871,7 @@
         <v>2</v>
       </c>
       <c r="Q951" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="952">
@@ -53945,7 +53945,7 @@
         <v>2</v>
       </c>
       <c r="Q1009" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1010">
@@ -56065,7 +56065,7 @@
         <v>0</v>
       </c>
       <c r="Q1049" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1050">
@@ -58185,7 +58185,7 @@
         <v>2</v>
       </c>
       <c r="Q1089" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1090">
@@ -59192,7 +59192,7 @@
         <v>1</v>
       </c>
       <c r="Q1108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1109">
@@ -60252,7 +60252,7 @@
         <v>0</v>
       </c>
       <c r="Q1128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1129">
@@ -61259,7 +61259,7 @@
         <v>2</v>
       </c>
       <c r="Q1147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1148">
@@ -62319,7 +62319,7 @@
         <v>0</v>
       </c>
       <c r="Q1167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1168">
@@ -63008,7 +63008,7 @@
         <v>2</v>
       </c>
       <c r="Q1180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1181">
@@ -64121,7 +64121,7 @@
         <v>2</v>
       </c>
       <c r="Q1201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1202">
@@ -66400,7 +66400,7 @@
         <v>1</v>
       </c>
       <c r="Q1244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1245">
@@ -68096,7 +68096,7 @@
         <v>1</v>
       </c>
       <c r="Q1276" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1277">
@@ -70534,7 +70534,7 @@
         <v>2</v>
       </c>
       <c r="Q1322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1323">
@@ -71912,7 +71912,7 @@
         <v>2</v>
       </c>
       <c r="Q1348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1349">
@@ -72495,7 +72495,7 @@
         <v>0</v>
       </c>
       <c r="Q1359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1360">
@@ -73555,7 +73555,7 @@
         <v>0</v>
       </c>
       <c r="Q1379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1380">
@@ -74297,7 +74297,7 @@
         <v>2</v>
       </c>
       <c r="Q1393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1394">
@@ -75092,7 +75092,7 @@
         <v>0</v>
       </c>
       <c r="Q1408" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1409">
@@ -77265,7 +77265,7 @@
         <v>0</v>
       </c>
       <c r="Q1449" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1450">
@@ -77689,7 +77689,7 @@
         <v>0</v>
       </c>
       <c r="Q1457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1458">
@@ -78802,7 +78802,7 @@
         <v>1</v>
       </c>
       <c r="Q1478" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1479">
@@ -80233,7 +80233,7 @@
         <v>1</v>
       </c>
       <c r="Q1505" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1506">
@@ -83996,7 +83996,7 @@
         <v>0</v>
       </c>
       <c r="Q1576" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1577">
@@ -85745,7 +85745,7 @@
         <v>0</v>
       </c>
       <c r="Q1609" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1610">
@@ -86434,7 +86434,7 @@
         <v>0</v>
       </c>
       <c r="Q1622" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1623">
@@ -88500,7 +88500,9 @@
       <c r="P1661" t="n">
         <v>0</v>
       </c>
-      <c r="Q1661" t="inlineStr"/>
+      <c r="Q1661" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1662">
       <c r="A1662" s="2" t="n">
@@ -88551,7 +88553,9 @@
       <c r="P1662" t="n">
         <v>0</v>
       </c>
-      <c r="Q1662" t="inlineStr"/>
+      <c r="Q1662" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1663">
       <c r="A1663" s="2" t="n">
@@ -88602,7 +88606,9 @@
       <c r="P1663" t="n">
         <v>0</v>
       </c>
-      <c r="Q1663" t="inlineStr"/>
+      <c r="Q1663" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1664">
       <c r="A1664" s="2" t="n">
@@ -88653,7 +88659,9 @@
       <c r="P1664" t="n">
         <v>0</v>
       </c>
-      <c r="Q1664" t="inlineStr"/>
+      <c r="Q1664" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1665">
       <c r="A1665" s="2" t="n">
@@ -88704,7 +88712,9 @@
       <c r="P1665" t="n">
         <v>0</v>
       </c>
-      <c r="Q1665" t="inlineStr"/>
+      <c r="Q1665" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1666">
       <c r="A1666" s="2" t="n">
@@ -88755,7 +88765,9 @@
       <c r="P1666" t="n">
         <v>0</v>
       </c>
-      <c r="Q1666" t="inlineStr"/>
+      <c r="Q1666" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1667">
       <c r="A1667" s="2" t="n">
@@ -88806,7 +88818,9 @@
       <c r="P1667" t="n">
         <v>0</v>
       </c>
-      <c r="Q1667" t="inlineStr"/>
+      <c r="Q1667" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1668">
       <c r="A1668" s="2" t="n">
@@ -88857,7 +88871,9 @@
       <c r="P1668" t="n">
         <v>0</v>
       </c>
-      <c r="Q1668" t="inlineStr"/>
+      <c r="Q1668" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1669">
       <c r="A1669" s="2" t="n">
@@ -88908,7 +88924,9 @@
       <c r="P1669" t="n">
         <v>0</v>
       </c>
-      <c r="Q1669" t="inlineStr"/>
+      <c r="Q1669" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1670">
       <c r="A1670" s="2" t="n">
@@ -88959,7 +88977,9 @@
       <c r="P1670" t="n">
         <v>0</v>
       </c>
-      <c r="Q1670" t="inlineStr"/>
+      <c r="Q1670" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1671">
       <c r="A1671" s="2" t="n">
@@ -89010,7 +89030,9 @@
       <c r="P1671" t="n">
         <v>0</v>
       </c>
-      <c r="Q1671" t="inlineStr"/>
+      <c r="Q1671" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1672">
       <c r="A1672" s="2" t="n">
@@ -89061,7 +89083,9 @@
       <c r="P1672" t="n">
         <v>0</v>
       </c>
-      <c r="Q1672" t="inlineStr"/>
+      <c r="Q1672" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1673">
       <c r="A1673" s="2" t="n">
@@ -89112,7 +89136,9 @@
       <c r="P1673" t="n">
         <v>0</v>
       </c>
-      <c r="Q1673" t="inlineStr"/>
+      <c r="Q1673" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1674">
       <c r="A1674" s="2" t="n">
@@ -89163,7 +89189,978 @@
       <c r="P1674" t="n">
         <v>0</v>
       </c>
-      <c r="Q1674" t="inlineStr"/>
+      <c r="Q1674" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1675">
+      <c r="A1675" s="2" t="n">
+        <v>45684.38541666666</v>
+      </c>
+      <c r="B1675" t="n">
+        <v>979</v>
+      </c>
+      <c r="C1675" t="n">
+        <v>988</v>
+      </c>
+      <c r="D1675" t="n">
+        <v>958.1500244140625</v>
+      </c>
+      <c r="E1675" t="n">
+        <v>958.1500244140625</v>
+      </c>
+      <c r="F1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1675" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1675" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1675" t="n">
+        <v>27</v>
+      </c>
+      <c r="J1675" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1675" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1675" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1675" t="inlineStr"/>
+    </row>
+    <row r="1676">
+      <c r="A1676" s="2" t="n">
+        <v>45684.42708333334</v>
+      </c>
+      <c r="B1676" t="n">
+        <v>958.1500244140625</v>
+      </c>
+      <c r="C1676" t="n">
+        <v>958.1500244140625</v>
+      </c>
+      <c r="D1676" t="n">
+        <v>958.1500244140625</v>
+      </c>
+      <c r="E1676" t="n">
+        <v>958.1500244140625</v>
+      </c>
+      <c r="F1676" t="n">
+        <v>500</v>
+      </c>
+      <c r="G1676" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1676" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1676" t="n">
+        <v>27</v>
+      </c>
+      <c r="J1676" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1676" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1676" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1676" t="inlineStr"/>
+    </row>
+    <row r="1677">
+      <c r="A1677" s="2" t="n">
+        <v>45684.46875</v>
+      </c>
+      <c r="B1677" t="n">
+        <v>958.1500244140625</v>
+      </c>
+      <c r="C1677" t="n">
+        <v>958.1500244140625</v>
+      </c>
+      <c r="D1677" t="n">
+        <v>958.1500244140625</v>
+      </c>
+      <c r="E1677" t="n">
+        <v>958.1500244140625</v>
+      </c>
+      <c r="F1677" t="n">
+        <v>1625</v>
+      </c>
+      <c r="G1677" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1677" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1677" t="n">
+        <v>27</v>
+      </c>
+      <c r="J1677" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1677" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1677" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1677" t="inlineStr"/>
+    </row>
+    <row r="1678">
+      <c r="A1678" s="2" t="n">
+        <v>45684.51041666666</v>
+      </c>
+      <c r="B1678" t="n">
+        <v>958.1500244140625</v>
+      </c>
+      <c r="C1678" t="n">
+        <v>958.1500244140625</v>
+      </c>
+      <c r="D1678" t="n">
+        <v>958.1500244140625</v>
+      </c>
+      <c r="E1678" t="n">
+        <v>958.1500244140625</v>
+      </c>
+      <c r="F1678" t="n">
+        <v>375</v>
+      </c>
+      <c r="G1678" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1678" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1678" t="n">
+        <v>27</v>
+      </c>
+      <c r="J1678" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1678" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1678" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1678" t="inlineStr"/>
+    </row>
+    <row r="1679">
+      <c r="A1679" s="2" t="n">
+        <v>45684.55208333334</v>
+      </c>
+      <c r="B1679" t="n">
+        <v>958.1500244140625</v>
+      </c>
+      <c r="C1679" t="n">
+        <v>958.1500244140625</v>
+      </c>
+      <c r="D1679" t="n">
+        <v>958.1500244140625</v>
+      </c>
+      <c r="E1679" t="n">
+        <v>958.1500244140625</v>
+      </c>
+      <c r="F1679" t="n">
+        <v>250</v>
+      </c>
+      <c r="G1679" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1679" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1679" t="n">
+        <v>27</v>
+      </c>
+      <c r="J1679" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1679" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1679" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1679" t="inlineStr"/>
+    </row>
+    <row r="1680">
+      <c r="A1680" s="2" t="n">
+        <v>45685.38541666666</v>
+      </c>
+      <c r="B1680" t="n">
+        <v>930</v>
+      </c>
+      <c r="C1680" t="n">
+        <v>930</v>
+      </c>
+      <c r="D1680" t="n">
+        <v>910.25</v>
+      </c>
+      <c r="E1680" t="n">
+        <v>910.25</v>
+      </c>
+      <c r="F1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1680" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1680" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1680" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1680" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1680" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1680" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1680" t="inlineStr"/>
+    </row>
+    <row r="1681">
+      <c r="A1681" s="2" t="n">
+        <v>45685.42708333334</v>
+      </c>
+      <c r="B1681" t="n">
+        <v>910.25</v>
+      </c>
+      <c r="C1681" t="n">
+        <v>910.25</v>
+      </c>
+      <c r="D1681" t="n">
+        <v>910.25</v>
+      </c>
+      <c r="E1681" t="n">
+        <v>910.25</v>
+      </c>
+      <c r="F1681" t="n">
+        <v>875</v>
+      </c>
+      <c r="G1681" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1681" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1681" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1681" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1681" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1681" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1681" t="inlineStr"/>
+    </row>
+    <row r="1682">
+      <c r="A1682" s="2" t="n">
+        <v>45685.46875</v>
+      </c>
+      <c r="B1682" t="n">
+        <v>910.25</v>
+      </c>
+      <c r="C1682" t="n">
+        <v>910.25</v>
+      </c>
+      <c r="D1682" t="n">
+        <v>910.25</v>
+      </c>
+      <c r="E1682" t="n">
+        <v>910.25</v>
+      </c>
+      <c r="F1682" t="n">
+        <v>625</v>
+      </c>
+      <c r="G1682" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1682" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1682" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1682" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1682" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1682" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1682" t="inlineStr"/>
+    </row>
+    <row r="1683">
+      <c r="A1683" s="2" t="n">
+        <v>45685.51041666666</v>
+      </c>
+      <c r="B1683" t="n">
+        <v>910.25</v>
+      </c>
+      <c r="C1683" t="n">
+        <v>910.25</v>
+      </c>
+      <c r="D1683" t="n">
+        <v>910.25</v>
+      </c>
+      <c r="E1683" t="n">
+        <v>910.25</v>
+      </c>
+      <c r="F1683" t="n">
+        <v>625</v>
+      </c>
+      <c r="G1683" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1683" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1683" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1683" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1683" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1683" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1683" t="inlineStr"/>
+    </row>
+    <row r="1684">
+      <c r="A1684" s="2" t="n">
+        <v>45685.55208333334</v>
+      </c>
+      <c r="B1684" t="n">
+        <v>910.25</v>
+      </c>
+      <c r="C1684" t="n">
+        <v>910.25</v>
+      </c>
+      <c r="D1684" t="n">
+        <v>910.25</v>
+      </c>
+      <c r="E1684" t="n">
+        <v>910.25</v>
+      </c>
+      <c r="F1684" t="n">
+        <v>250</v>
+      </c>
+      <c r="G1684" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1684" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1684" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1684" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1684" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1684" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1684" t="inlineStr"/>
+    </row>
+    <row r="1685">
+      <c r="A1685" s="2" t="n">
+        <v>45685.59375</v>
+      </c>
+      <c r="B1685" t="n">
+        <v>910.25</v>
+      </c>
+      <c r="C1685" t="n">
+        <v>910.25</v>
+      </c>
+      <c r="D1685" t="n">
+        <v>910.25</v>
+      </c>
+      <c r="E1685" t="n">
+        <v>910.25</v>
+      </c>
+      <c r="F1685" t="n">
+        <v>375</v>
+      </c>
+      <c r="G1685" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1685" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1685" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1685" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1685" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1685" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1685" t="inlineStr"/>
+    </row>
+    <row r="1686">
+      <c r="A1686" s="2" t="n">
+        <v>45685.63541666666</v>
+      </c>
+      <c r="B1686" t="n">
+        <v>910.25</v>
+      </c>
+      <c r="C1686" t="n">
+        <v>910.25</v>
+      </c>
+      <c r="D1686" t="n">
+        <v>910.25</v>
+      </c>
+      <c r="E1686" t="n">
+        <v>910.25</v>
+      </c>
+      <c r="F1686" t="n">
+        <v>125</v>
+      </c>
+      <c r="G1686" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1686" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1686" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1686" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1686" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1686" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1686" t="inlineStr"/>
+    </row>
+    <row r="1687">
+      <c r="A1687" s="2" t="n">
+        <v>45686.38541666666</v>
+      </c>
+      <c r="B1687" t="n">
+        <v>870</v>
+      </c>
+      <c r="C1687" t="n">
+        <v>919.9500122070312</v>
+      </c>
+      <c r="D1687" t="n">
+        <v>864.75</v>
+      </c>
+      <c r="E1687" t="n">
+        <v>903.25</v>
+      </c>
+      <c r="F1687" t="n">
+        <v>19250</v>
+      </c>
+      <c r="G1687" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1687" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1687" t="n">
+        <v>29</v>
+      </c>
+      <c r="J1687" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1687" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1687" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1687" t="inlineStr"/>
+    </row>
+    <row r="1688">
+      <c r="A1688" s="2" t="n">
+        <v>45686.42708333334</v>
+      </c>
+      <c r="B1688" t="n">
+        <v>902</v>
+      </c>
+      <c r="C1688" t="n">
+        <v>940</v>
+      </c>
+      <c r="D1688" t="n">
+        <v>901.9500122070312</v>
+      </c>
+      <c r="E1688" t="n">
+        <v>940</v>
+      </c>
+      <c r="F1688" t="n">
+        <v>7125</v>
+      </c>
+      <c r="G1688" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1688" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1688" t="n">
+        <v>29</v>
+      </c>
+      <c r="J1688" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1688" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1688" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1688" t="inlineStr"/>
+    </row>
+    <row r="1689">
+      <c r="A1689" s="2" t="n">
+        <v>45686.46875</v>
+      </c>
+      <c r="B1689" t="n">
+        <v>937</v>
+      </c>
+      <c r="C1689" t="n">
+        <v>954</v>
+      </c>
+      <c r="D1689" t="n">
+        <v>937</v>
+      </c>
+      <c r="E1689" t="n">
+        <v>950</v>
+      </c>
+      <c r="F1689" t="n">
+        <v>7125</v>
+      </c>
+      <c r="G1689" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1689" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1689" t="n">
+        <v>29</v>
+      </c>
+      <c r="J1689" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1689" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1689" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1689" t="inlineStr"/>
+    </row>
+    <row r="1690">
+      <c r="A1690" s="2" t="n">
+        <v>45686.51041666666</v>
+      </c>
+      <c r="B1690" t="n">
+        <v>955.75</v>
+      </c>
+      <c r="C1690" t="n">
+        <v>955.75</v>
+      </c>
+      <c r="D1690" t="n">
+        <v>942.0499877929688</v>
+      </c>
+      <c r="E1690" t="n">
+        <v>942.0499877929688</v>
+      </c>
+      <c r="F1690" t="n">
+        <v>9750</v>
+      </c>
+      <c r="G1690" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1690" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1690" t="n">
+        <v>29</v>
+      </c>
+      <c r="J1690" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1690" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1690" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1690" t="inlineStr"/>
+    </row>
+    <row r="1691">
+      <c r="A1691" s="2" t="n">
+        <v>45686.55208333334</v>
+      </c>
+      <c r="B1691" t="n">
+        <v>933</v>
+      </c>
+      <c r="C1691" t="n">
+        <v>951.4000244140625</v>
+      </c>
+      <c r="D1691" t="n">
+        <v>933</v>
+      </c>
+      <c r="E1691" t="n">
+        <v>951.4000244140625</v>
+      </c>
+      <c r="F1691" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G1691" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1691" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1691" t="n">
+        <v>29</v>
+      </c>
+      <c r="J1691" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1691" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1691" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1691" t="inlineStr"/>
+    </row>
+    <row r="1692">
+      <c r="A1692" s="2" t="n">
+        <v>45686.59375</v>
+      </c>
+      <c r="B1692" t="n">
+        <v>951.4000244140625</v>
+      </c>
+      <c r="C1692" t="n">
+        <v>951.4000244140625</v>
+      </c>
+      <c r="D1692" t="n">
+        <v>940</v>
+      </c>
+      <c r="E1692" t="n">
+        <v>940.0499877929688</v>
+      </c>
+      <c r="F1692" t="n">
+        <v>3625</v>
+      </c>
+      <c r="G1692" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1692" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1692" t="n">
+        <v>29</v>
+      </c>
+      <c r="J1692" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1692" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1692" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1692" t="inlineStr"/>
+    </row>
+    <row r="1693">
+      <c r="A1693" s="2" t="n">
+        <v>45686.63541666666</v>
+      </c>
+      <c r="B1693" t="n">
+        <v>940</v>
+      </c>
+      <c r="C1693" t="n">
+        <v>955.75</v>
+      </c>
+      <c r="D1693" t="n">
+        <v>940</v>
+      </c>
+      <c r="E1693" t="n">
+        <v>946.25</v>
+      </c>
+      <c r="F1693" t="n">
+        <v>2625</v>
+      </c>
+      <c r="G1693" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1693" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1693" t="n">
+        <v>29</v>
+      </c>
+      <c r="J1693" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1693" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1693" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1693" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/SOLEX-SM.NS.xlsx
+++ b/stock_historical_data/60m/SOLEX-SM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1693"/>
+  <dimension ref="A1:Q1700"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10803,7 +10803,7 @@
         <v>0</v>
       </c>
       <c r="Q195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
@@ -12287,7 +12287,7 @@
         <v>0</v>
       </c>
       <c r="Q223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224">
@@ -14937,7 +14937,7 @@
         <v>2</v>
       </c>
       <c r="Q273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274">
@@ -16580,7 +16580,7 @@
         <v>2</v>
       </c>
       <c r="Q304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305">
@@ -17428,7 +17428,7 @@
         <v>2</v>
       </c>
       <c r="Q320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321">
@@ -19866,7 +19866,7 @@
         <v>0</v>
       </c>
       <c r="Q366" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367">
@@ -23205,7 +23205,7 @@
         <v>0</v>
       </c>
       <c r="Q429" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430">
@@ -29777,7 +29777,7 @@
         <v>2</v>
       </c>
       <c r="Q553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554">
@@ -30943,7 +30943,7 @@
         <v>1</v>
       </c>
       <c r="Q575" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576">
@@ -32427,7 +32427,7 @@
         <v>1</v>
       </c>
       <c r="Q603" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604">
@@ -32798,7 +32798,7 @@
         <v>2</v>
       </c>
       <c r="Q610" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611">
@@ -34070,7 +34070,7 @@
         <v>1</v>
       </c>
       <c r="Q634" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635">
@@ -35077,7 +35077,7 @@
         <v>0</v>
       </c>
       <c r="Q653" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="654">
@@ -36508,7 +36508,7 @@
         <v>0</v>
       </c>
       <c r="Q680" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="681">
@@ -37409,7 +37409,7 @@
         <v>1</v>
       </c>
       <c r="Q697" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698">
@@ -38734,7 +38734,7 @@
         <v>1</v>
       </c>
       <c r="Q722" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723">
@@ -40907,7 +40907,7 @@
         <v>1</v>
       </c>
       <c r="Q763" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764">
@@ -42338,7 +42338,7 @@
         <v>2</v>
       </c>
       <c r="Q790" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="791">
@@ -42391,7 +42391,7 @@
         <v>2</v>
       </c>
       <c r="Q791" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792">
@@ -44458,7 +44458,7 @@
         <v>2</v>
       </c>
       <c r="Q830" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="831">
@@ -47055,7 +47055,7 @@
         <v>2</v>
       </c>
       <c r="Q879" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="880">
@@ -48168,7 +48168,7 @@
         <v>2</v>
       </c>
       <c r="Q900" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="901">
@@ -49069,7 +49069,7 @@
         <v>2</v>
       </c>
       <c r="Q917" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="918">
@@ -49652,7 +49652,7 @@
         <v>2</v>
       </c>
       <c r="Q928" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="929">
@@ -50606,7 +50606,7 @@
         <v>1</v>
       </c>
       <c r="Q946" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="947">
@@ -50871,7 +50871,7 @@
         <v>2</v>
       </c>
       <c r="Q951" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="952">
@@ -53945,7 +53945,7 @@
         <v>2</v>
       </c>
       <c r="Q1009" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1010">
@@ -56065,7 +56065,7 @@
         <v>0</v>
       </c>
       <c r="Q1049" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1050">
@@ -58185,7 +58185,7 @@
         <v>2</v>
       </c>
       <c r="Q1089" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1090">
@@ -59192,7 +59192,7 @@
         <v>1</v>
       </c>
       <c r="Q1108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1109">
@@ -60252,7 +60252,7 @@
         <v>0</v>
       </c>
       <c r="Q1128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1129">
@@ -61259,7 +61259,7 @@
         <v>2</v>
       </c>
       <c r="Q1147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1148">
@@ -62319,7 +62319,7 @@
         <v>0</v>
       </c>
       <c r="Q1167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1168">
@@ -63008,7 +63008,7 @@
         <v>2</v>
       </c>
       <c r="Q1180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1181">
@@ -64121,7 +64121,7 @@
         <v>2</v>
       </c>
       <c r="Q1201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1202">
@@ -66400,7 +66400,7 @@
         <v>1</v>
       </c>
       <c r="Q1244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1245">
@@ -68096,7 +68096,7 @@
         <v>1</v>
       </c>
       <c r="Q1276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1277">
@@ -70534,7 +70534,7 @@
         <v>2</v>
       </c>
       <c r="Q1322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1323">
@@ -71912,7 +71912,7 @@
         <v>2</v>
       </c>
       <c r="Q1348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1349">
@@ -72495,7 +72495,7 @@
         <v>0</v>
       </c>
       <c r="Q1359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1360">
@@ -73555,7 +73555,7 @@
         <v>0</v>
       </c>
       <c r="Q1379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1380">
@@ -74297,7 +74297,7 @@
         <v>2</v>
       </c>
       <c r="Q1393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1394">
@@ -75092,7 +75092,7 @@
         <v>0</v>
       </c>
       <c r="Q1408" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1409">
@@ -77265,7 +77265,7 @@
         <v>0</v>
       </c>
       <c r="Q1449" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1450">
@@ -77689,7 +77689,7 @@
         <v>0</v>
       </c>
       <c r="Q1457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1458">
@@ -78802,7 +78802,7 @@
         <v>1</v>
       </c>
       <c r="Q1478" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1479">
@@ -80233,7 +80233,7 @@
         <v>1</v>
       </c>
       <c r="Q1505" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1506">
@@ -83996,7 +83996,7 @@
         <v>0</v>
       </c>
       <c r="Q1576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1577">
@@ -85745,7 +85745,7 @@
         <v>0</v>
       </c>
       <c r="Q1609" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1610">
@@ -86434,7 +86434,7 @@
         <v>0</v>
       </c>
       <c r="Q1622" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1623">
@@ -89242,7 +89242,9 @@
       <c r="P1675" t="n">
         <v>0</v>
       </c>
-      <c r="Q1675" t="inlineStr"/>
+      <c r="Q1675" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1676">
       <c r="A1676" s="2" t="n">
@@ -89293,7 +89295,9 @@
       <c r="P1676" t="n">
         <v>0</v>
       </c>
-      <c r="Q1676" t="inlineStr"/>
+      <c r="Q1676" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1677">
       <c r="A1677" s="2" t="n">
@@ -89344,7 +89348,9 @@
       <c r="P1677" t="n">
         <v>0</v>
       </c>
-      <c r="Q1677" t="inlineStr"/>
+      <c r="Q1677" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1678">
       <c r="A1678" s="2" t="n">
@@ -89395,7 +89401,9 @@
       <c r="P1678" t="n">
         <v>0</v>
       </c>
-      <c r="Q1678" t="inlineStr"/>
+      <c r="Q1678" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1679">
       <c r="A1679" s="2" t="n">
@@ -89446,7 +89454,9 @@
       <c r="P1679" t="n">
         <v>0</v>
       </c>
-      <c r="Q1679" t="inlineStr"/>
+      <c r="Q1679" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1680">
       <c r="A1680" s="2" t="n">
@@ -89497,7 +89507,9 @@
       <c r="P1680" t="n">
         <v>0</v>
       </c>
-      <c r="Q1680" t="inlineStr"/>
+      <c r="Q1680" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1681">
       <c r="A1681" s="2" t="n">
@@ -89548,7 +89560,9 @@
       <c r="P1681" t="n">
         <v>0</v>
       </c>
-      <c r="Q1681" t="inlineStr"/>
+      <c r="Q1681" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1682">
       <c r="A1682" s="2" t="n">
@@ -89599,7 +89613,9 @@
       <c r="P1682" t="n">
         <v>0</v>
       </c>
-      <c r="Q1682" t="inlineStr"/>
+      <c r="Q1682" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1683">
       <c r="A1683" s="2" t="n">
@@ -89650,7 +89666,9 @@
       <c r="P1683" t="n">
         <v>0</v>
       </c>
-      <c r="Q1683" t="inlineStr"/>
+      <c r="Q1683" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1684">
       <c r="A1684" s="2" t="n">
@@ -89701,7 +89719,9 @@
       <c r="P1684" t="n">
         <v>0</v>
       </c>
-      <c r="Q1684" t="inlineStr"/>
+      <c r="Q1684" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1685">
       <c r="A1685" s="2" t="n">
@@ -89752,7 +89772,9 @@
       <c r="P1685" t="n">
         <v>0</v>
       </c>
-      <c r="Q1685" t="inlineStr"/>
+      <c r="Q1685" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1686">
       <c r="A1686" s="2" t="n">
@@ -89803,7 +89825,9 @@
       <c r="P1686" t="n">
         <v>0</v>
       </c>
-      <c r="Q1686" t="inlineStr"/>
+      <c r="Q1686" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1687">
       <c r="A1687" s="2" t="n">
@@ -89846,7 +89870,7 @@
         <v>5</v>
       </c>
       <c r="N1687" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O1687" t="n">
         <v>0</v>
@@ -89854,7 +89878,9 @@
       <c r="P1687" t="n">
         <v>0</v>
       </c>
-      <c r="Q1687" t="inlineStr"/>
+      <c r="Q1687" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1688">
       <c r="A1688" s="2" t="n">
@@ -89905,7 +89931,9 @@
       <c r="P1688" t="n">
         <v>0</v>
       </c>
-      <c r="Q1688" t="inlineStr"/>
+      <c r="Q1688" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1689">
       <c r="A1689" s="2" t="n">
@@ -89956,7 +89984,9 @@
       <c r="P1689" t="n">
         <v>0</v>
       </c>
-      <c r="Q1689" t="inlineStr"/>
+      <c r="Q1689" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1690">
       <c r="A1690" s="2" t="n">
@@ -90007,7 +90037,9 @@
       <c r="P1690" t="n">
         <v>0</v>
       </c>
-      <c r="Q1690" t="inlineStr"/>
+      <c r="Q1690" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1691">
       <c r="A1691" s="2" t="n">
@@ -90058,7 +90090,9 @@
       <c r="P1691" t="n">
         <v>0</v>
       </c>
-      <c r="Q1691" t="inlineStr"/>
+      <c r="Q1691" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1692">
       <c r="A1692" s="2" t="n">
@@ -90109,7 +90143,9 @@
       <c r="P1692" t="n">
         <v>0</v>
       </c>
-      <c r="Q1692" t="inlineStr"/>
+      <c r="Q1692" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1693">
       <c r="A1693" s="2" t="n">
@@ -90160,7 +90196,366 @@
       <c r="P1693" t="n">
         <v>0</v>
       </c>
-      <c r="Q1693" t="inlineStr"/>
+      <c r="Q1693" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1694">
+      <c r="A1694" s="2" t="n">
+        <v>45687.38541666666</v>
+      </c>
+      <c r="B1694" t="n">
+        <v>961.9000244140625</v>
+      </c>
+      <c r="C1694" t="n">
+        <v>989</v>
+      </c>
+      <c r="D1694" t="n">
+        <v>956</v>
+      </c>
+      <c r="E1694" t="n">
+        <v>985.0499877929688</v>
+      </c>
+      <c r="F1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1694" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1694" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1694" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1694" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1694" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1694" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1694" t="inlineStr"/>
+    </row>
+    <row r="1695">
+      <c r="A1695" s="2" t="n">
+        <v>45687.42708333334</v>
+      </c>
+      <c r="B1695" t="n">
+        <v>988.4500122070312</v>
+      </c>
+      <c r="C1695" t="n">
+        <v>988.4500122070312</v>
+      </c>
+      <c r="D1695" t="n">
+        <v>965</v>
+      </c>
+      <c r="E1695" t="n">
+        <v>973</v>
+      </c>
+      <c r="F1695" t="n">
+        <v>10750</v>
+      </c>
+      <c r="G1695" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1695" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1695" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1695" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1695" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1695" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1695" t="inlineStr"/>
+    </row>
+    <row r="1696">
+      <c r="A1696" s="2" t="n">
+        <v>45687.46875</v>
+      </c>
+      <c r="B1696" t="n">
+        <v>973</v>
+      </c>
+      <c r="C1696" t="n">
+        <v>974.0999755859375</v>
+      </c>
+      <c r="D1696" t="n">
+        <v>965</v>
+      </c>
+      <c r="E1696" t="n">
+        <v>966.0499877929688</v>
+      </c>
+      <c r="F1696" t="n">
+        <v>3375</v>
+      </c>
+      <c r="G1696" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1696" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1696" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1696" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1696" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1696" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1696" t="inlineStr"/>
+    </row>
+    <row r="1697">
+      <c r="A1697" s="2" t="n">
+        <v>45687.51041666666</v>
+      </c>
+      <c r="B1697" t="n">
+        <v>965.0499877929688</v>
+      </c>
+      <c r="C1697" t="n">
+        <v>969</v>
+      </c>
+      <c r="D1697" t="n">
+        <v>964.9500122070312</v>
+      </c>
+      <c r="E1697" t="n">
+        <v>969</v>
+      </c>
+      <c r="F1697" t="n">
+        <v>2375</v>
+      </c>
+      <c r="G1697" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1697" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1697" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1697" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1697" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1697" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1697" t="inlineStr"/>
+    </row>
+    <row r="1698">
+      <c r="A1698" s="2" t="n">
+        <v>45687.55208333334</v>
+      </c>
+      <c r="B1698" t="n">
+        <v>968.9000244140625</v>
+      </c>
+      <c r="C1698" t="n">
+        <v>968.9000244140625</v>
+      </c>
+      <c r="D1698" t="n">
+        <v>951</v>
+      </c>
+      <c r="E1698" t="n">
+        <v>951</v>
+      </c>
+      <c r="F1698" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G1698" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1698" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1698" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1698" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1698" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1698" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1698" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1698" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1698" t="inlineStr"/>
+    </row>
+    <row r="1699">
+      <c r="A1699" s="2" t="n">
+        <v>45687.59375</v>
+      </c>
+      <c r="B1699" t="n">
+        <v>954</v>
+      </c>
+      <c r="C1699" t="n">
+        <v>959.5</v>
+      </c>
+      <c r="D1699" t="n">
+        <v>940</v>
+      </c>
+      <c r="E1699" t="n">
+        <v>955</v>
+      </c>
+      <c r="F1699" t="n">
+        <v>7375</v>
+      </c>
+      <c r="G1699" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1699" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1699" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1699" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1699" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1699" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1699" t="inlineStr"/>
+    </row>
+    <row r="1700">
+      <c r="A1700" s="2" t="n">
+        <v>45687.63541666666</v>
+      </c>
+      <c r="B1700" t="n">
+        <v>956.4000244140625</v>
+      </c>
+      <c r="C1700" t="n">
+        <v>956.4000244140625</v>
+      </c>
+      <c r="D1700" t="n">
+        <v>948</v>
+      </c>
+      <c r="E1700" t="n">
+        <v>951.4500122070312</v>
+      </c>
+      <c r="F1700" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G1700" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1700" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1700" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1700" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1700" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1700" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1700" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/SOLEX-SM.NS.xlsx
+++ b/stock_historical_data/60m/SOLEX-SM.NS.xlsx
@@ -90249,7 +90249,9 @@
       <c r="P1694" t="n">
         <v>0</v>
       </c>
-      <c r="Q1694" t="inlineStr"/>
+      <c r="Q1694" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1695">
       <c r="A1695" s="2" t="n">
@@ -90300,7 +90302,9 @@
       <c r="P1695" t="n">
         <v>0</v>
       </c>
-      <c r="Q1695" t="inlineStr"/>
+      <c r="Q1695" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1696">
       <c r="A1696" s="2" t="n">
@@ -90351,7 +90355,9 @@
       <c r="P1696" t="n">
         <v>0</v>
       </c>
-      <c r="Q1696" t="inlineStr"/>
+      <c r="Q1696" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1697">
       <c r="A1697" s="2" t="n">
@@ -90402,7 +90408,9 @@
       <c r="P1697" t="n">
         <v>0</v>
       </c>
-      <c r="Q1697" t="inlineStr"/>
+      <c r="Q1697" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1698">
       <c r="A1698" s="2" t="n">
@@ -90453,7 +90461,9 @@
       <c r="P1698" t="n">
         <v>1</v>
       </c>
-      <c r="Q1698" t="inlineStr"/>
+      <c r="Q1698" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1699">
       <c r="A1699" s="2" t="n">
@@ -90504,7 +90514,9 @@
       <c r="P1699" t="n">
         <v>0</v>
       </c>
-      <c r="Q1699" t="inlineStr"/>
+      <c r="Q1699" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1700">
       <c r="A1700" s="2" t="n">
@@ -90555,7 +90567,9 @@
       <c r="P1700" t="n">
         <v>0</v>
       </c>
-      <c r="Q1700" t="inlineStr"/>
+      <c r="Q1700" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
